--- a/biology/Botanique/Bardane_tomenteuse/Bardane_tomenteuse.xlsx
+++ b/biology/Botanique/Bardane_tomenteuse/Bardane_tomenteuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctium tomentosum, la Bardane tomenteuse ou poilue, est une espèce de plante à fleurs de la famille des Astéracées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctium tomentosum est une plante herbacée biennale.
 La tige est dressée, avec des branches montantes pouvant atteindre une hauteur d'environ 2 mètres.
@@ -550,7 +564,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se trouve naturellement en Europe et en Asie, de l'Espagne à la province de Xinjiang à l'ouest de la Chine, et dans d'autres parties du monde comme l'Amérique du nord.
 </t>
@@ -581,9 +597,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France, elle est classée comme non préoccupante [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France, elle est classée comme non préoccupante .
 Toutefois localement l'espèce est considérée en danger-critique (CR) en Île de France ; quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, en Nord-Pas-de-Calais, Bourgogne, Alsace.
 			Graines et fleurs séchées d'Arctium tomentosum au Muséum de Toulouse.
 </t>
